--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D8716D2-F5EE-405A-819E-C9D0F654C7D6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A291E2C-4206-4E8C-89D5-472D63BCB30C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -524,17 +524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -557,7 +557,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f>+C2+D2</f>
+        <f t="shared" ref="B2:B44" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -573,7 +573,7 @@
         <v>42705</v>
       </c>
       <c r="B3" s="3">
-        <f>+C3+D3</f>
+        <f t="shared" si="1"/>
         <v>289551</v>
       </c>
       <c r="C3" s="3">
@@ -589,7 +589,7 @@
         <v>42736</v>
       </c>
       <c r="B4" s="3">
-        <f>+C4+D4</f>
+        <f t="shared" si="1"/>
         <v>314856</v>
       </c>
       <c r="C4" s="3">
@@ -605,7 +605,7 @@
         <v>42767</v>
       </c>
       <c r="B5" s="3">
-        <f>+C5+D5</f>
+        <f t="shared" si="1"/>
         <v>335021</v>
       </c>
       <c r="C5" s="3">
@@ -621,7 +621,7 @@
         <v>42795</v>
       </c>
       <c r="B6" s="3">
-        <f>+C6+D6</f>
+        <f t="shared" si="1"/>
         <v>358735</v>
       </c>
       <c r="C6" s="3">
@@ -637,7 +637,7 @@
         <v>42826</v>
       </c>
       <c r="B7" s="3">
-        <f>+C7+D7</f>
+        <f t="shared" si="1"/>
         <v>379994</v>
       </c>
       <c r="C7" s="3">
@@ -653,7 +653,7 @@
         <v>42856</v>
       </c>
       <c r="B8" s="3">
-        <f>+C8+D8</f>
+        <f t="shared" si="1"/>
         <v>404550</v>
       </c>
       <c r="C8" s="3">
@@ -669,7 +669,7 @@
         <v>42887</v>
       </c>
       <c r="B9" s="3">
-        <f>+C9+D9</f>
+        <f t="shared" si="1"/>
         <v>428640</v>
       </c>
       <c r="C9" s="3">
@@ -685,7 +685,7 @@
         <v>42917</v>
       </c>
       <c r="B10" s="3">
-        <f>+C10+D10</f>
+        <f t="shared" si="1"/>
         <v>449670</v>
       </c>
       <c r="C10" s="3">
@@ -701,7 +701,7 @@
         <v>42948</v>
       </c>
       <c r="B11" s="3">
-        <f>+C11+D11</f>
+        <f t="shared" si="1"/>
         <v>472553</v>
       </c>
       <c r="C11" s="3">
@@ -717,7 +717,7 @@
         <v>42979</v>
       </c>
       <c r="B12" s="3">
-        <f>+C12+D12</f>
+        <f t="shared" si="1"/>
         <v>497594</v>
       </c>
       <c r="C12" s="3">
@@ -733,7 +733,7 @@
         <v>43009</v>
       </c>
       <c r="B13" s="3">
-        <f>+C13+D13</f>
+        <f t="shared" si="1"/>
         <v>525006</v>
       </c>
       <c r="C13" s="3">
@@ -749,7 +749,7 @@
         <v>43040</v>
       </c>
       <c r="B14" s="3">
-        <f>+C14+D14</f>
+        <f t="shared" si="1"/>
         <v>554176</v>
       </c>
       <c r="C14" s="3">
@@ -765,7 +765,7 @@
         <v>43070</v>
       </c>
       <c r="B15" s="3">
-        <f>+C15+D15</f>
+        <f t="shared" si="1"/>
         <v>574849</v>
       </c>
       <c r="C15" s="3">
@@ -781,7 +781,7 @@
         <v>43101</v>
       </c>
       <c r="B16" s="3">
-        <f>+C16+D16</f>
+        <f t="shared" si="1"/>
         <v>602645</v>
       </c>
       <c r="C16" s="3">
@@ -797,7 +797,7 @@
         <v>43132</v>
       </c>
       <c r="B17" s="3">
-        <f>+C17+D17</f>
+        <f t="shared" si="1"/>
         <v>624894</v>
       </c>
       <c r="C17" s="3">
@@ -813,7 +813,7 @@
         <v>43160</v>
       </c>
       <c r="B18" s="3">
-        <f>+C18+D18</f>
+        <f t="shared" si="1"/>
         <v>648820</v>
       </c>
       <c r="C18" s="3">
@@ -829,7 +829,7 @@
         <v>43191</v>
       </c>
       <c r="B19" s="5">
-        <f>+C19+D19</f>
+        <f t="shared" si="1"/>
         <v>674748</v>
       </c>
       <c r="C19" s="5">
@@ -845,7 +845,7 @@
         <v>43221</v>
       </c>
       <c r="B20" s="7">
-        <f>+C20+D20</f>
+        <f t="shared" si="1"/>
         <v>700675</v>
       </c>
       <c r="C20" s="7">
@@ -861,7 +861,7 @@
         <v>43252</v>
       </c>
       <c r="B21" s="3">
-        <f>+C21+D21</f>
+        <f t="shared" si="1"/>
         <v>726603</v>
       </c>
       <c r="C21" s="3">
@@ -877,7 +877,7 @@
         <v>43282</v>
       </c>
       <c r="B22" s="3">
-        <f>+C22+D22</f>
+        <f t="shared" si="1"/>
         <v>753441</v>
       </c>
       <c r="C22" s="3">
@@ -893,7 +893,7 @@
         <v>43313</v>
       </c>
       <c r="B23" s="3">
-        <f>+C23+D23</f>
+        <f t="shared" si="1"/>
         <v>774215</v>
       </c>
       <c r="C23" s="3">
@@ -909,7 +909,7 @@
         <v>43344</v>
       </c>
       <c r="B24" s="3">
-        <f>+C24+D24</f>
+        <f t="shared" si="1"/>
         <v>799960</v>
       </c>
       <c r="C24" s="3">
@@ -925,7 +925,7 @@
         <v>43374</v>
       </c>
       <c r="B25" s="3">
-        <f>+C25+D25</f>
+        <f t="shared" si="1"/>
         <v>824962</v>
       </c>
       <c r="C25" s="3">
@@ -941,7 +941,7 @@
         <v>43405</v>
       </c>
       <c r="B26" s="3">
-        <f>+C26+D26</f>
+        <f t="shared" si="1"/>
         <v>847569</v>
       </c>
       <c r="C26" s="3">
@@ -957,7 +957,7 @@
         <v>43435</v>
       </c>
       <c r="B27" s="3">
-        <f>+C27+D27</f>
+        <f t="shared" si="1"/>
         <v>864322</v>
       </c>
       <c r="C27" s="3">
@@ -972,7 +972,7 @@
         <v>43466</v>
       </c>
       <c r="B28" s="3">
-        <f>+C28+D28</f>
+        <f t="shared" si="1"/>
         <v>883115</v>
       </c>
       <c r="C28" s="3">
@@ -987,7 +987,7 @@
         <v>43497</v>
       </c>
       <c r="B29" s="3">
-        <f>+C29+D29</f>
+        <f t="shared" si="1"/>
         <v>900126</v>
       </c>
       <c r="C29" s="3">
@@ -1002,7 +1002,7 @@
         <v>43525</v>
       </c>
       <c r="B30" s="3">
-        <f>+C30+D30</f>
+        <f t="shared" si="1"/>
         <v>919415</v>
       </c>
       <c r="C30" s="3">
@@ -1017,7 +1017,7 @@
         <v>43556</v>
       </c>
       <c r="B31" s="3">
-        <f>+C31+D31</f>
+        <f t="shared" si="1"/>
         <v>935860</v>
       </c>
       <c r="C31" s="3">
@@ -1032,7 +1032,7 @@
         <v>43586</v>
       </c>
       <c r="B32" s="3">
-        <f>+C32+D32</f>
+        <f t="shared" si="1"/>
         <v>953074</v>
       </c>
       <c r="C32" s="3">
@@ -1047,7 +1047,7 @@
         <v>43617</v>
       </c>
       <c r="B33" s="3">
-        <f>+C33+D33</f>
+        <f t="shared" si="1"/>
         <v>966858</v>
       </c>
       <c r="C33" s="3">
@@ -1062,7 +1062,7 @@
         <v>43647</v>
       </c>
       <c r="B34" s="3">
-        <f>+C34+D34</f>
+        <f t="shared" si="1"/>
         <v>978774</v>
       </c>
       <c r="C34" s="3">
@@ -1077,7 +1077,7 @@
         <v>43678</v>
       </c>
       <c r="B35" s="3">
-        <f>+C35+D35</f>
+        <f t="shared" si="1"/>
         <v>992816</v>
       </c>
       <c r="C35" s="3">
@@ -1092,7 +1092,7 @@
         <v>43709</v>
       </c>
       <c r="B36" s="3">
-        <f>+C36+D36</f>
+        <f t="shared" si="1"/>
         <v>1006858</v>
       </c>
       <c r="C36" s="3">
@@ -1107,7 +1107,7 @@
         <v>43739</v>
       </c>
       <c r="B37" s="3">
-        <f>+C37+D37</f>
+        <f t="shared" si="1"/>
         <v>1022562</v>
       </c>
       <c r="C37" s="3">
@@ -1122,7 +1122,7 @@
         <v>43770</v>
       </c>
       <c r="B38" s="3">
-        <f>+C38+D38</f>
+        <f t="shared" si="1"/>
         <v>1038176</v>
       </c>
       <c r="C38" s="3">
@@ -1137,7 +1137,7 @@
         <v>43800</v>
       </c>
       <c r="B39" s="3">
-        <f>+C39+D39</f>
+        <f t="shared" si="1"/>
         <v>1051442</v>
       </c>
       <c r="C39" s="3">
@@ -1152,7 +1152,7 @@
         <v>43831</v>
       </c>
       <c r="B40" s="3">
-        <f>+C40+D40</f>
+        <f t="shared" si="1"/>
         <v>1067273</v>
       </c>
       <c r="C40" s="3">
@@ -1167,7 +1167,7 @@
         <v>43862</v>
       </c>
       <c r="B41" s="9">
-        <f>+C41+D41</f>
+        <f t="shared" si="1"/>
         <v>1082922</v>
       </c>
       <c r="C41" s="9">
@@ -1182,7 +1182,7 @@
         <v>43891</v>
       </c>
       <c r="B42" s="9">
-        <f>+C42+D42</f>
+        <f t="shared" si="1"/>
         <v>1094490</v>
       </c>
       <c r="C42" s="9">
@@ -1197,7 +1197,7 @@
         <v>43922</v>
       </c>
       <c r="B43" s="9">
-        <f>+C43+D43</f>
+        <f t="shared" si="1"/>
         <v>1096141</v>
       </c>
       <c r="C43" s="9">
@@ -1205,6 +1205,21 @@
       </c>
       <c r="D43" s="9">
         <v>877810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="1"/>
+        <v>1097659</v>
+      </c>
+      <c r="C44" s="3">
+        <v>218747</v>
+      </c>
+      <c r="D44" s="4">
+        <v>878912</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A291E2C-4206-4E8C-89D5-472D63BCB30C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFDA6EE8-9ECB-4E97-9400-914CB6E2C754}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -209,6 +209,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -524,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +558,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B44" si="1">+C2+D2</f>
+        <f t="shared" ref="B2:B45" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -1222,6 +1223,21 @@
         <v>878912</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>43983</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" si="1"/>
+        <v>1100120</v>
+      </c>
+      <c r="C45" s="3">
+        <v>219261</v>
+      </c>
+      <c r="D45" s="4">
+        <v>880859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFDA6EE8-9ECB-4E97-9400-914CB6E2C754}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8760A7BF-B9DE-4E07-A645-B086ED2C700C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -525,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +552,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B45" si="1">+C2+D2</f>
+        <f t="shared" ref="B2:B46" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -1238,6 +1232,21 @@
         <v>880859</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>44013</v>
+      </c>
+      <c r="B46" s="9">
+        <f t="shared" si="1"/>
+        <v>1106843</v>
+      </c>
+      <c r="C46" s="3">
+        <v>220405</v>
+      </c>
+      <c r="D46" s="4">
+        <v>886438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{A4EE666E-A5BD-422A-B696-C643249CF777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8760A7BF-B9DE-4E07-A645-B086ED2C700C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CDDE69-C81E-451B-ACD6-2B792E4D381F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +552,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B46" si="1">+C2+D2</f>
+        <f t="shared" ref="B2:B47" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -1247,6 +1247,21 @@
         <v>886438</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>44044</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="1"/>
+        <v>1118882</v>
+      </c>
+      <c r="C47" s="3">
+        <v>222393</v>
+      </c>
+      <c r="D47" s="4">
+        <v>896489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CDDE69-C81E-451B-ACD6-2B792E4D381F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23BED7-B269-40CF-B71A-BAA1ED6F7D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +552,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B47" si="1">+C2+D2</f>
+        <f t="shared" ref="B2:B48" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -1262,6 +1262,21 @@
         <v>896489</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>44075</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" si="1"/>
+        <v>1135595</v>
+      </c>
+      <c r="C48" s="3">
+        <v>225356</v>
+      </c>
+      <c r="D48" s="4">
+        <v>910239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23BED7-B269-40CF-B71A-BAA1ED6F7D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812D283-7E74-4663-AB7E-FB2A0692D2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="0" yWindow="2240" windowWidth="28800" windowHeight="15470" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +552,7 @@
         <v>42675</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B48" si="1">+C2+D2</f>
+        <f t="shared" ref="B2:B49" si="1">+C2+D2</f>
         <v>270688</v>
       </c>
       <c r="C2" s="3">
@@ -1277,6 +1277,21 @@
         <v>910239</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
+        <v>44105</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="1"/>
+        <v>1155331</v>
+      </c>
+      <c r="C49" s="3">
+        <v>228997</v>
+      </c>
+      <c r="D49" s="4">
+        <v>926334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812D283-7E74-4663-AB7E-FB2A0692D2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4AB65-EF11-4F88-8FB4-3835AFA138F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2240" windowWidth="28800" windowHeight="15470" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,6 +1292,21 @@
         <v>926334</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>44136</v>
+      </c>
+      <c r="B50" s="3">
+        <f>C50+D50</f>
+        <v>1172451</v>
+      </c>
+      <c r="C50" s="3">
+        <v>232607</v>
+      </c>
+      <c r="D50" s="4">
+        <v>939844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4AB65-EF11-4F88-8FB4-3835AFA138F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DDA89-CD14-49E2-AF09-8B6F5F223ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="82245" yWindow="20175" windowWidth="7830" windowHeight="4005" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,6 +1307,51 @@
         <v>939844</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
+        <v>44166</v>
+      </c>
+      <c r="B51" s="3">
+        <f>C51+D51</f>
+        <v>1185691</v>
+      </c>
+      <c r="C51" s="3">
+        <v>235566</v>
+      </c>
+      <c r="D51" s="4">
+        <v>950125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>44197</v>
+      </c>
+      <c r="B52" s="3">
+        <f>C52+D52</f>
+        <v>1193009</v>
+      </c>
+      <c r="C52" s="3">
+        <v>237179</v>
+      </c>
+      <c r="D52" s="4">
+        <v>955830</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="14">
+        <v>44228</v>
+      </c>
+      <c r="B53" s="3">
+        <f>C53+D53</f>
+        <v>1195881</v>
+      </c>
+      <c r="C53" s="3">
+        <v>238043</v>
+      </c>
+      <c r="D53" s="4">
+        <v>957838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DDA89-CD14-49E2-AF09-8B6F5F223ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFB625-2D66-482E-A7D7-89FC62068498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82245" yWindow="20175" windowWidth="7830" windowHeight="4005" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1352,6 +1352,21 @@
         <v>957838</v>
       </c>
     </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>44256</v>
+      </c>
+      <c r="B54" s="3">
+        <f>C54+D54</f>
+        <v>1199526</v>
+      </c>
+      <c r="C54" s="3">
+        <v>238971</v>
+      </c>
+      <c r="D54" s="4">
+        <v>960555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFB625-2D66-482E-A7D7-89FC62068498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132707C5-F849-4E3A-B1E0-E0FB1E06F8C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1367,6 +1376,21 @@
         <v>960555</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="14">
+        <v>44287</v>
+      </c>
+      <c r="B55" s="3">
+        <f>C55+D55</f>
+        <v>1206519</v>
+      </c>
+      <c r="C55" s="3">
+        <v>240495</v>
+      </c>
+      <c r="D55" s="4">
+        <v>966024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132707C5-F849-4E3A-B1E0-E0FB1E06F8C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999048E9-B94A-450C-84C5-3DE34421095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,7 +1306,7 @@
         <v>44136</v>
       </c>
       <c r="B50" s="3">
-        <f>C50+D50</f>
+        <f t="shared" ref="B50:B57" si="2">C50+D50</f>
         <v>1172451</v>
       </c>
       <c r="C50" s="3">
@@ -1321,7 +1321,7 @@
         <v>44166</v>
       </c>
       <c r="B51" s="3">
-        <f>C51+D51</f>
+        <f t="shared" si="2"/>
         <v>1185691</v>
       </c>
       <c r="C51" s="3">
@@ -1336,7 +1336,7 @@
         <v>44197</v>
       </c>
       <c r="B52" s="3">
-        <f>C52+D52</f>
+        <f t="shared" si="2"/>
         <v>1193009</v>
       </c>
       <c r="C52" s="3">
@@ -1351,7 +1351,7 @@
         <v>44228</v>
       </c>
       <c r="B53" s="3">
-        <f>C53+D53</f>
+        <f t="shared" si="2"/>
         <v>1195881</v>
       </c>
       <c r="C53" s="3">
@@ -1366,7 +1366,7 @@
         <v>44256</v>
       </c>
       <c r="B54" s="3">
-        <f>C54+D54</f>
+        <f t="shared" si="2"/>
         <v>1199526</v>
       </c>
       <c r="C54" s="3">
@@ -1381,7 +1381,7 @@
         <v>44287</v>
       </c>
       <c r="B55" s="3">
-        <f>C55+D55</f>
+        <f t="shared" si="2"/>
         <v>1206519</v>
       </c>
       <c r="C55" s="3">
@@ -1389,6 +1389,36 @@
       </c>
       <c r="D55" s="4">
         <v>966024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="2"/>
+        <v>1224448</v>
+      </c>
+      <c r="C56" s="3">
+        <v>244063</v>
+      </c>
+      <c r="D56" s="4">
+        <v>980385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="14">
+        <v>44348</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="2"/>
+        <v>1244462</v>
+      </c>
+      <c r="C57" s="3">
+        <v>248039</v>
+      </c>
+      <c r="D57" s="4">
+        <v>996423</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999048E9-B94A-450C-84C5-3DE34421095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87294E-3E29-42F7-AF96-F3942130BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,17 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1306,7 +1307,7 @@
         <v>44136</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" ref="B50:B57" si="2">C50+D50</f>
+        <f t="shared" ref="B50:B58" si="2">C50+D50</f>
         <v>1172451</v>
       </c>
       <c r="C50" s="3">
@@ -1419,6 +1420,21 @@
       </c>
       <c r="D57" s="4">
         <v>996423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="14">
+        <v>44378</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="2"/>
+        <v>1262686</v>
+      </c>
+      <c r="C58" s="3">
+        <v>251535</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1011151</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87294E-3E29-42F7-AF96-F3942130BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27978E-907A-45C4-9988-076853A2485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,6 +1437,21 @@
         <v>1011151</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="14">
+        <v>44409</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" ref="B59" si="3">C59+D59</f>
+        <v>1279980</v>
+      </c>
+      <c r="C59" s="3">
+        <v>254885</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1025095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27978E-907A-45C4-9988-076853A2485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9939A29F-A9B0-4C6D-81BA-FF9EFC694916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,21 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f t="shared" ref="A2:A26" si="0">DATE(YEAR(A3),MONTH(A3)-1,DAY(A3))</f>
         <v>42675</v>
@@ -572,7 +572,7 @@
         <v>219979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -588,7 +588,7 @@
         <v>236422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f t="shared" si="0"/>
         <v>42736</v>
@@ -604,7 +604,7 @@
         <v>259107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -620,7 +620,7 @@
         <v>276999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -636,7 +636,7 @@
         <v>297635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -652,7 +652,7 @@
         <v>316016</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -668,7 +668,7 @@
         <v>336698</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -684,7 +684,7 @@
         <v>357185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -700,7 +700,7 @@
         <v>374977</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -716,7 +716,7 @@
         <v>394171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -732,7 +732,7 @@
         <v>415103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -748,7 +748,7 @@
         <v>437055</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -764,7 +764,7 @@
         <v>460945</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -780,7 +780,7 @@
         <v>477449</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -796,7 +796,7 @@
         <v>499940</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -812,7 +812,7 @@
         <v>517095</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -828,7 +828,7 @@
         <v>535176</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -844,7 +844,7 @@
         <v>554472</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -860,7 +860,7 @@
         <v>573768</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -876,7 +876,7 @@
         <v>593064</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -892,7 +892,7 @@
         <v>614162</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f>DATE(YEAR(A24),MONTH(A24)-1,DAY(A24))</f>
         <v>43313</v>
@@ -908,7 +908,7 @@
         <v>628927</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f>DATE(YEAR(A25),MONTH(A25)-1,DAY(A25))</f>
         <v>43344</v>
@@ -924,7 +924,7 @@
         <v>648701</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -940,7 +940,7 @@
         <v>666784</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -956,7 +956,7 @@
         <v>683030</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f>DATE(YEAR(A28),MONTH(A28)-1,DAY(A28))</f>
         <v>43435</v>
@@ -972,7 +972,7 @@
         <v>694910</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>43466</v>
       </c>
@@ -987,7 +987,7 @@
         <v>709049</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43497</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>721590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43525</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>736108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43556</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>748446</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43586</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>761199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43617</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>771300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43647</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>781009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43678</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>792553</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43709</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>804317</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>43739</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>817252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>43770</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>829952</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>43800</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>840902</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>43831</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>854103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>43862</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>867121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>43891</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>876522</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43922</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>877810</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43952</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>878912</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43983</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>880859</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44013</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>886438</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>44044</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>896489</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>44075</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>910239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>44105</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>926334</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>44136</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>939844</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>44166</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>950125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>44197</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>955830</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>44228</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>957838</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>44256</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>960555</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>44287</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>966024</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>44317</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>980385</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>44348</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>996423</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>44378</v>
       </c>
@@ -1437,12 +1437,12 @@
         <v>1011151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B60" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1450,6 +1450,21 @@
       </c>
       <c r="D59" s="4">
         <v>1025095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>44440</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>1297155</v>
+      </c>
+      <c r="C60" s="3">
+        <v>258302</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1038853</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9939A29F-A9B0-4C6D-81BA-FF9EFC694916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B5A427-A4E9-4C5F-A6FD-51BE6C60734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,21 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <f t="shared" ref="A2:A26" si="0">DATE(YEAR(A3),MONTH(A3)-1,DAY(A3))</f>
         <v>42675</v>
@@ -572,7 +572,7 @@
         <v>219979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -588,7 +588,7 @@
         <v>236422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <f t="shared" si="0"/>
         <v>42736</v>
@@ -604,7 +604,7 @@
         <v>259107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -620,7 +620,7 @@
         <v>276999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -636,7 +636,7 @@
         <v>297635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -652,7 +652,7 @@
         <v>316016</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -668,7 +668,7 @@
         <v>336698</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -684,7 +684,7 @@
         <v>357185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -700,7 +700,7 @@
         <v>374977</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -716,7 +716,7 @@
         <v>394171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -732,7 +732,7 @@
         <v>415103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -748,7 +748,7 @@
         <v>437055</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -764,7 +764,7 @@
         <v>460945</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -780,7 +780,7 @@
         <v>477449</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -796,7 +796,7 @@
         <v>499940</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -812,7 +812,7 @@
         <v>517095</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -828,7 +828,7 @@
         <v>535176</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -844,7 +844,7 @@
         <v>554472</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -860,7 +860,7 @@
         <v>573768</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -876,7 +876,7 @@
         <v>593064</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -892,7 +892,7 @@
         <v>614162</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <f>DATE(YEAR(A24),MONTH(A24)-1,DAY(A24))</f>
         <v>43313</v>
@@ -908,7 +908,7 @@
         <v>628927</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <f>DATE(YEAR(A25),MONTH(A25)-1,DAY(A25))</f>
         <v>43344</v>
@@ -924,7 +924,7 @@
         <v>648701</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -940,7 +940,7 @@
         <v>666784</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -956,7 +956,7 @@
         <v>683030</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <f>DATE(YEAR(A28),MONTH(A28)-1,DAY(A28))</f>
         <v>43435</v>
@@ -972,7 +972,7 @@
         <v>694910</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>43466</v>
       </c>
@@ -987,7 +987,7 @@
         <v>709049</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>43497</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>721590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>43525</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>736108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>43556</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>748446</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>43586</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>761199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>43617</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>771300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>43647</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>781009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>43678</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>792553</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>43709</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>804317</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>43739</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>817252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>43770</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>829952</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>43800</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>840902</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>43831</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>854103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>43862</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>867121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>43891</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>876522</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>43922</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>877810</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>43952</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>878912</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="14">
         <v>43983</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>880859</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="14">
         <v>44013</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>886438</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>44044</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>896489</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
         <v>44075</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>910239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
         <v>44105</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>926334</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>44136</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>939844</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>44166</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>950125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
         <v>44197</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>955830</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>44228</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>957838</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>44256</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>960555</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>44287</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>966024</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>44317</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>980385</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
         <v>44348</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>996423</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="14">
         <v>44378</v>
       </c>
@@ -1437,12 +1437,12 @@
         <v>1011151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="14">
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B60" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B62" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1452,7 +1452,7 @@
         <v>1025095</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>44440</v>
       </c>
@@ -1465,6 +1465,36 @@
       </c>
       <c r="D60" s="4">
         <v>1038853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="14">
+        <v>44470</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>1316645</v>
+      </c>
+      <c r="C61" s="3">
+        <v>262521</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1054124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="14">
+        <v>44501</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>1334376</v>
+      </c>
+      <c r="C62" s="3">
+        <v>266167</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1068209</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B5A427-A4E9-4C5F-A6FD-51BE6C60734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC922C63-3AF4-4A62-BFE2-D1B4EEAD498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -181,11 +179,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -213,10 +212,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,21 +529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -556,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f t="shared" ref="A2:A26" si="0">DATE(YEAR(A3),MONTH(A3)-1,DAY(A3))</f>
         <v>42675</v>
@@ -572,7 +573,7 @@
         <v>219979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -588,7 +589,7 @@
         <v>236422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f t="shared" si="0"/>
         <v>42736</v>
@@ -604,7 +605,7 @@
         <v>259107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -620,7 +621,7 @@
         <v>276999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -636,7 +637,7 @@
         <v>297635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -652,7 +653,7 @@
         <v>316016</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -668,7 +669,7 @@
         <v>336698</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -684,7 +685,7 @@
         <v>357185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -700,7 +701,7 @@
         <v>374977</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -716,7 +717,7 @@
         <v>394171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -732,7 +733,7 @@
         <v>415103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -748,7 +749,7 @@
         <v>437055</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -764,7 +765,7 @@
         <v>460945</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -780,7 +781,7 @@
         <v>477449</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -796,7 +797,7 @@
         <v>499940</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -812,7 +813,7 @@
         <v>517095</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -828,7 +829,7 @@
         <v>535176</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -844,7 +845,7 @@
         <v>554472</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -860,7 +861,7 @@
         <v>573768</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -876,7 +877,7 @@
         <v>593064</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -892,7 +893,7 @@
         <v>614162</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f>DATE(YEAR(A24),MONTH(A24)-1,DAY(A24))</f>
         <v>43313</v>
@@ -908,7 +909,7 @@
         <v>628927</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f>DATE(YEAR(A25),MONTH(A25)-1,DAY(A25))</f>
         <v>43344</v>
@@ -924,7 +925,7 @@
         <v>648701</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -940,7 +941,7 @@
         <v>666784</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -956,7 +957,7 @@
         <v>683030</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <f>DATE(YEAR(A28),MONTH(A28)-1,DAY(A28))</f>
         <v>43435</v>
@@ -972,7 +973,7 @@
         <v>694910</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>43466</v>
       </c>
@@ -987,7 +988,7 @@
         <v>709049</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>43497</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>721590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>43525</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>736108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>43556</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>748446</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>43586</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>761199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>43617</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>771300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>43647</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>781009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>43678</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>792553</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>43709</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>804317</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>43739</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>817252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>43770</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>829952</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>43800</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>840902</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>43831</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>854103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>43862</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>867121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>43891</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>876522</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>43922</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>877810</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43952</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>878912</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>43983</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>880859</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>44013</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>886438</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>44044</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>896489</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>44075</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>910239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>44105</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>926334</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>44136</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>939844</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>44166</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>950125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>44197</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>955830</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>44228</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>957838</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>44256</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>960555</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>44287</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>966024</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>44317</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>980385</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>44348</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>996423</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>44378</v>
       </c>
@@ -1437,12 +1438,12 @@
         <v>1011151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B62" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B61" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1452,7 +1453,7 @@
         <v>1025095</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>44440</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>1038853</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>44470</v>
       </c>
@@ -1482,12 +1483,12 @@
         <v>1054124</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>44501</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="3"/>
+        <f>C62+D62</f>
         <v>1334376</v>
       </c>
       <c r="C62" s="3">
@@ -1496,6 +1497,40 @@
       <c r="D62" s="4">
         <v>1068209</v>
       </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>44531</v>
+      </c>
+      <c r="B63" s="3">
+        <f>C63+D63</f>
+        <v>1346982</v>
+      </c>
+      <c r="C63" s="3">
+        <v>268849</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1078133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>44562</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1362198</v>
+      </c>
+      <c r="C64" s="3">
+        <v>272120</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1090078</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC922C63-3AF4-4A62-BFE2-D1B4EEAD498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1433EF60-8436-4913-A7A0-23F222C87808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,14 +531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1527,9 +1527,61 @@
         <v>1090078</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>44593</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1380132</v>
+      </c>
+      <c r="C65" s="3">
+        <v>275474</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1104658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>44621</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1401419</v>
+      </c>
+      <c r="C66" s="3">
+        <v>279432</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1121987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>44652</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1419446</v>
+      </c>
+      <c r="C67" s="3">
+        <v>283201</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1136245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>44682</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1439976</v>
+      </c>
+      <c r="C68" s="3">
+        <v>288113</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1151863</v>
+      </c>
       <c r="E68" s="15"/>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1433EF60-8436-4913-A7A0-23F222C87808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5227EE67-F8E2-40CC-93AF-11B0933721E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,21 +529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f t="shared" ref="A2:A26" si="0">DATE(YEAR(A3),MONTH(A3)-1,DAY(A3))</f>
         <v>42675</v>
@@ -573,7 +573,7 @@
         <v>219979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -589,7 +589,7 @@
         <v>236422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f t="shared" si="0"/>
         <v>42736</v>
@@ -605,7 +605,7 @@
         <v>259107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -621,7 +621,7 @@
         <v>276999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -637,7 +637,7 @@
         <v>297635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -653,7 +653,7 @@
         <v>316016</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -669,7 +669,7 @@
         <v>336698</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -685,7 +685,7 @@
         <v>357185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -701,7 +701,7 @@
         <v>374977</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -717,7 +717,7 @@
         <v>394171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -733,7 +733,7 @@
         <v>415103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -749,7 +749,7 @@
         <v>437055</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -765,7 +765,7 @@
         <v>460945</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -781,7 +781,7 @@
         <v>477449</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -797,7 +797,7 @@
         <v>499940</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -813,7 +813,7 @@
         <v>517095</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -829,7 +829,7 @@
         <v>535176</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -845,7 +845,7 @@
         <v>554472</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -861,7 +861,7 @@
         <v>573768</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -877,7 +877,7 @@
         <v>593064</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -893,7 +893,7 @@
         <v>614162</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f>DATE(YEAR(A24),MONTH(A24)-1,DAY(A24))</f>
         <v>43313</v>
@@ -909,7 +909,7 @@
         <v>628927</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f>DATE(YEAR(A25),MONTH(A25)-1,DAY(A25))</f>
         <v>43344</v>
@@ -925,7 +925,7 @@
         <v>648701</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -941,7 +941,7 @@
         <v>666784</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -957,7 +957,7 @@
         <v>683030</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f>DATE(YEAR(A28),MONTH(A28)-1,DAY(A28))</f>
         <v>43435</v>
@@ -973,7 +973,7 @@
         <v>694910</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>43466</v>
       </c>
@@ -988,7 +988,7 @@
         <v>709049</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43497</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>721590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43525</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>736108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43556</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>748446</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43586</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>761199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43617</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>771300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43647</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>781009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43678</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>792553</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43709</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>804317</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>43739</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>817252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>43770</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>829952</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>43800</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>840902</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>43831</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>854103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>43862</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>867121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>43891</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>876522</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43922</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>877810</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43952</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>878912</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43983</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>880859</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44013</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>886438</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>44044</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>896489</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>44075</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>910239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>44105</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>926334</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>44136</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>939844</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>44166</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>950125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>44197</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>955830</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>44228</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>957838</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>44256</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>960555</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>44287</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>966024</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>44317</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>980385</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>44348</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>996423</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>44378</v>
       </c>
@@ -1438,12 +1438,12 @@
         <v>1011151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B61" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B72" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1453,7 +1453,7 @@
         <v>1025095</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>44440</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1038853</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>44470</v>
       </c>
@@ -1483,12 +1483,12 @@
         <v>1054124</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>44501</v>
       </c>
       <c r="B62" s="3">
-        <f>C62+D62</f>
+        <f t="shared" si="3"/>
         <v>1334376</v>
       </c>
       <c r="C62" s="3">
@@ -1498,12 +1498,12 @@
         <v>1068209</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>44531</v>
       </c>
       <c r="B63" s="3">
-        <f>C63+D63</f>
+        <f t="shared" si="3"/>
         <v>1346982</v>
       </c>
       <c r="C63" s="3">
@@ -1513,11 +1513,12 @@
         <v>1078133</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>44562</v>
       </c>
       <c r="B64" s="3">
+        <f t="shared" si="3"/>
         <v>1362198</v>
       </c>
       <c r="C64" s="3">
@@ -1527,11 +1528,12 @@
         <v>1090078</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>44593</v>
       </c>
       <c r="B65" s="3">
+        <f t="shared" si="3"/>
         <v>1380132</v>
       </c>
       <c r="C65" s="3">
@@ -1541,11 +1543,12 @@
         <v>1104658</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>44621</v>
       </c>
       <c r="B66" s="3">
+        <f t="shared" si="3"/>
         <v>1401419</v>
       </c>
       <c r="C66" s="3">
@@ -1555,11 +1558,12 @@
         <v>1121987</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>44652</v>
       </c>
       <c r="B67" s="3">
+        <f t="shared" si="3"/>
         <v>1419446</v>
       </c>
       <c r="C67" s="3">
@@ -1569,11 +1573,12 @@
         <v>1136245</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>44682</v>
       </c>
       <c r="B68" s="3">
+        <f t="shared" si="3"/>
         <v>1439976</v>
       </c>
       <c r="C68" s="3">
@@ -1583,6 +1588,69 @@
         <v>1151863</v>
       </c>
       <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>44713</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="3"/>
+        <v>1458041</v>
+      </c>
+      <c r="C69" s="3">
+        <v>292183</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1165858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>44743</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="3"/>
+        <v>1475677</v>
+      </c>
+      <c r="C70" s="3">
+        <v>296489</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1179188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>44774</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="3"/>
+        <v>1495505</v>
+      </c>
+      <c r="C71" s="3">
+        <v>301593</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1193912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>44805</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="3"/>
+        <v>1515632</v>
+      </c>
+      <c r="C72" s="3">
+        <v>306361</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1209271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5227EE67-F8E2-40CC-93AF-11B0933721E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E6EA9E-61B6-467D-ABEF-BD452AB024B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -529,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1436,7 @@
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B72" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B80" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1650,7 +1643,124 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14">
+        <v>44835</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="3"/>
+        <v>1535945</v>
+      </c>
+      <c r="C73" s="3">
+        <v>310874</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1225071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>44866</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="3"/>
+        <v>1556398</v>
+      </c>
+      <c r="C74" s="3">
+        <v>315584</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1240814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>44896</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="3"/>
+        <v>1571452</v>
+      </c>
+      <c r="C75" s="3">
+        <v>318751</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1252701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>44927</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="3"/>
+        <v>1588155</v>
+      </c>
+      <c r="C76" s="3">
+        <v>322311</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1265844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>44958</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="3"/>
+        <v>1605850</v>
+      </c>
+      <c r="C77" s="3">
+        <v>326414</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1279436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="3"/>
+        <v>1625858</v>
+      </c>
+      <c r="C78" s="3">
+        <v>331220</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1294638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>45017</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="3"/>
+        <v>1641738</v>
+      </c>
+      <c r="C79" s="3">
+        <v>335392</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1306346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>45047</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="3"/>
+        <v>1659971</v>
+      </c>
+      <c r="C80" s="3">
+        <v>340647</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1319324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E6EA9E-61B6-467D-ABEF-BD452AB024B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58820CD3-43DA-4AE7-9A3E-391B6B2ED83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B80" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B82" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1760,6 +1760,36 @@
       </c>
       <c r="D80" s="4">
         <v>1319324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>45078</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="3"/>
+        <v>1478476</v>
+      </c>
+      <c r="C81" s="3">
+        <v>345333</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1133143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="3">
+        <f>C82+D82</f>
+        <v>1696126</v>
+      </c>
+      <c r="C82" s="3">
+        <v>351532</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1344594</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/Smart Meters.xlsx
+++ b/Data Sources/MANUAL/Smart Meters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58820CD3-43DA-4AE7-9A3E-391B6B2ED83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E1BA3-8341-4FFD-A4C1-3EF9B676A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB2F62E-874D-417F-9227-638141D830E8}"/>
   </bookViews>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC4C1F6-FB0E-4888-98E1-9234EEEB3B6B}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
         <v>44409</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B82" si="3">C59+D59</f>
+        <f t="shared" ref="B59:B81" si="3">C59+D59</f>
         <v>1279980</v>
       </c>
       <c r="C59" s="3">
@@ -1768,13 +1768,13 @@
       </c>
       <c r="B81" s="3">
         <f t="shared" si="3"/>
-        <v>1478476</v>
+        <v>1678476</v>
       </c>
       <c r="C81" s="3">
         <v>345333</v>
       </c>
       <c r="D81" s="4">
-        <v>1133143</v>
+        <v>1333143</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,6 +1790,36 @@
       </c>
       <c r="D82" s="4">
         <v>1344594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>45139</v>
+      </c>
+      <c r="B83" s="3">
+        <f>C83+D83</f>
+        <v>1716441</v>
+      </c>
+      <c r="C83" s="3">
+        <v>357329</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1359112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>45170</v>
+      </c>
+      <c r="B84" s="3">
+        <f>C84+D84</f>
+        <v>1735227</v>
+      </c>
+      <c r="C84" s="3">
+        <v>362961</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1372266</v>
       </c>
     </row>
   </sheetData>
